--- a/biology/Zoologie/Colostethus_poecilonotus/Colostethus_poecilonotus.xlsx
+++ b/biology/Zoologie/Colostethus_poecilonotus/Colostethus_poecilonotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">"Colostethus" poecilonotus
-« Colostethus » poecilonotus est une espèce d'amphibiens de la famille des Dendrobatidae[1].
-La position générique de cette espèce dans les Dendrobatidae est incertae sedis, elle est rapprochée de Colostethus ou Hyloxalus[2].
+« Colostethus » poecilonotus est une espèce d'amphibiens de la famille des Dendrobatidae.
+La position générique de cette espèce dans les Dendrobatidae est incertae sedis, elle est rapprochée de Colostethus ou Hyloxalus.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Bongará dans la région d'Amazonas en Pérou. Elle se rencontre à 1 000 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Bongará dans la région d'Amazonas en Pérou. Elle se rencontre à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rivero, 1991 : New Colostethus (Amphibia, Dendrobatidae) from South America. Breviora, no 493, p. 1-28 (texte intégral).</t>
         </is>
